--- a/REQUERIMIENTOS/16062017 - Propuesta de separacion de reportes GNS.xlsx
+++ b/REQUERIMIENTOS/16062017 - Propuesta de separacion de reportes GNS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C PROYECTOS JAVA\f1sc4l1z4c10n_doc\REQUERIMIENTOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="10665" windowHeight="7605" tabRatio="816" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="10665" windowHeight="7605" tabRatio="816"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte Fiscalizacion" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="226">
   <si>
     <t>GENERACION DE LA ORDEN</t>
   </si>
@@ -714,6 +719,21 @@
   </si>
   <si>
     <t>ESTADO DEL CONTROL POSTERIOR (REGISTRADO - ASIGNADO - NOTIFICADO - CONCLUIDO - REMITIDOA A LA UNIDAD LEGAL)</t>
+  </si>
+  <si>
+    <t>y si no hay vista de cargo</t>
+  </si>
+  <si>
+    <t>si no hay acta de intervencion</t>
+  </si>
+  <si>
+    <t>conclusion vc</t>
+  </si>
+  <si>
+    <t>fecha de pago</t>
+  </si>
+  <si>
+    <t>convertido a que fecha</t>
   </si>
 </sst>
 </file>
@@ -798,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,6 +1104,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,12 +1128,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,24 +1135,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,10 +1149,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1410,7 +1454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1420,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:DG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BE8" sqref="BE8:BI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,140 +1481,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:111" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="48" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="62" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="48" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="48" t="s">
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="48" t="s">
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="48" t="s">
+      <c r="BK3" s="54"/>
+      <c r="BL3" s="54"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="54"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="48" t="s">
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="54"/>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="50"/>
-      <c r="CK3" s="51" t="s">
+      <c r="CI3" s="54"/>
+      <c r="CJ3" s="55"/>
+      <c r="CK3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="CL3" s="48" t="s">
+      <c r="CL3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="49"/>
-      <c r="CS3" s="49"/>
-      <c r="CT3" s="49"/>
-      <c r="CU3" s="49"/>
-      <c r="CV3" s="50"/>
-      <c r="CW3" s="48" t="s">
+      <c r="CM3" s="54"/>
+      <c r="CN3" s="54"/>
+      <c r="CO3" s="54"/>
+      <c r="CP3" s="54"/>
+      <c r="CQ3" s="54"/>
+      <c r="CR3" s="54"/>
+      <c r="CS3" s="54"/>
+      <c r="CT3" s="54"/>
+      <c r="CU3" s="54"/>
+      <c r="CV3" s="55"/>
+      <c r="CW3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="CX3" s="49"/>
-      <c r="CY3" s="49"/>
-      <c r="CZ3" s="50"/>
-      <c r="DA3" s="59" t="s">
+      <c r="CX3" s="54"/>
+      <c r="CY3" s="54"/>
+      <c r="CZ3" s="55"/>
+      <c r="DA3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="DB3" s="60"/>
-      <c r="DC3" s="60"/>
-      <c r="DD3" s="60"/>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="61"/>
-      <c r="DG3" s="51" t="s">
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="51"/>
+      <c r="DE3" s="51"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1836,7 +1880,7 @@
       <c r="CJ4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CK4" s="52"/>
+      <c r="CK4" s="49"/>
       <c r="CL4" s="5" t="s">
         <v>100</v>
       </c>
@@ -1900,7 +1944,7 @@
       <c r="DF4" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="DG4" s="52"/>
+      <c r="DG4" s="49"/>
     </row>
     <row r="5" spans="2:111" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -2146,7 +2190,7 @@
       </c>
       <c r="CW5" s="7"/>
       <c r="CX5" s="7"/>
-      <c r="CY5" s="7"/>
+      <c r="CY5" s="72"/>
       <c r="CZ5" s="8" t="s">
         <v>149</v>
       </c>
@@ -2392,7 +2436,7 @@
       </c>
       <c r="CW6" s="16"/>
       <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
+      <c r="CY6" s="73"/>
       <c r="CZ6" s="16" t="s">
         <v>158</v>
       </c>
@@ -2428,24 +2472,24 @@
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="53" t="s">
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="53" t="s">
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="22" t="s">
         <v>182</v>
       </c>
@@ -2476,45 +2520,45 @@
       <c r="AV8" s="23"/>
       <c r="AW8" s="23"/>
       <c r="AX8" s="24"/>
-      <c r="AY8" s="53" t="s">
+      <c r="AY8" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="56" t="s">
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="58"/>
+      <c r="BE8" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="58"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="65"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="BM8" s="2" t="s">
+      <c r="BM8" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="BN8" s="53" t="s">
+      <c r="BN8" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="53" t="s">
+      <c r="BO8" s="58"/>
+      <c r="BP8" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="55"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="70"/>
       <c r="BS8" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="BT8" s="53" t="s">
+      <c r="BT8" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="BU8" s="55"/>
+      <c r="BU8" s="70"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="19"/>
       <c r="BX8" s="19"/>
@@ -2535,28 +2579,28 @@
       <c r="CK8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="CL8" s="53" t="s">
+      <c r="CL8" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="CM8" s="54"/>
-      <c r="CN8" s="54"/>
-      <c r="CO8" s="54"/>
-      <c r="CP8" s="54"/>
-      <c r="CQ8" s="55"/>
-      <c r="CR8" s="53" t="s">
+      <c r="CM8" s="57"/>
+      <c r="CN8" s="57"/>
+      <c r="CO8" s="57"/>
+      <c r="CP8" s="57"/>
+      <c r="CQ8" s="58"/>
+      <c r="CR8" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="CS8" s="54"/>
-      <c r="CT8" s="54"/>
-      <c r="CU8" s="55"/>
+      <c r="CS8" s="57"/>
+      <c r="CT8" s="57"/>
+      <c r="CU8" s="58"/>
       <c r="CV8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="CW8" s="53" t="s">
+      <c r="CW8" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="CX8" s="54"/>
-      <c r="CY8" s="55"/>
+      <c r="CX8" s="57"/>
+      <c r="CY8" s="58"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="20" t="s">
         <v>197</v>
@@ -2570,123 +2614,142 @@
         <v>198</v>
       </c>
     </row>
+    <row r="9" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="BM9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>223</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="BT10" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="13" spans="2:111" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="48" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="62" t="s">
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="63"/>
-      <c r="AN13" s="63"/>
-      <c r="AO13" s="63"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="63"/>
-      <c r="AR13" s="63"/>
-      <c r="AS13" s="63"/>
-      <c r="AT13" s="63"/>
-      <c r="AU13" s="63"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="63"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="48" t="s">
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="65" t="s">
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="55"/>
+      <c r="BG13" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="48" t="s">
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="62"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="62"/>
+      <c r="BL13" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BM13" s="49"/>
-      <c r="BN13" s="49"/>
-      <c r="BO13" s="49"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="49"/>
-      <c r="BR13" s="49"/>
-      <c r="BS13" s="49"/>
-      <c r="BT13" s="49"/>
-      <c r="BU13" s="49"/>
-      <c r="BV13" s="49"/>
-      <c r="BW13" s="48" t="s">
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="54"/>
+      <c r="BQ13" s="54"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="54"/>
+      <c r="BU13" s="54"/>
+      <c r="BV13" s="54"/>
+      <c r="BW13" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="BX13" s="49"/>
-      <c r="BY13" s="49"/>
-      <c r="BZ13" s="49"/>
-      <c r="CA13" s="49"/>
-      <c r="CB13" s="49"/>
-      <c r="CC13" s="49"/>
-      <c r="CD13" s="49"/>
-      <c r="CE13" s="49"/>
-      <c r="CF13" s="49"/>
-      <c r="CG13" s="49"/>
-      <c r="CH13" s="49"/>
-      <c r="CI13" s="50"/>
-      <c r="CJ13" s="48" t="s">
+      <c r="BX13" s="54"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="54"/>
+      <c r="CB13" s="54"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="54"/>
+      <c r="CE13" s="54"/>
+      <c r="CF13" s="54"/>
+      <c r="CG13" s="54"/>
+      <c r="CH13" s="54"/>
+      <c r="CI13" s="55"/>
+      <c r="CJ13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="CK13" s="50"/>
-      <c r="CL13" s="51" t="s">
+      <c r="CK13" s="55"/>
+      <c r="CL13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="CM13" s="59" t="s">
+      <c r="CM13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="CN13" s="60"/>
-      <c r="CO13" s="60"/>
-      <c r="CP13" s="60"/>
-      <c r="CQ13" s="60"/>
-      <c r="CR13" s="61"/>
-      <c r="CS13" s="51" t="s">
+      <c r="CN13" s="51"/>
+      <c r="CO13" s="51"/>
+      <c r="CP13" s="51"/>
+      <c r="CQ13" s="51"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="48" t="s">
         <v>12</v>
       </c>
       <c r="CT13" s="31"/>
@@ -2962,7 +3025,7 @@
       <c r="CK14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="CL14" s="52"/>
+      <c r="CL14" s="49"/>
       <c r="CM14" s="47" t="s">
         <v>113</v>
       </c>
@@ -2981,7 +3044,7 @@
       <c r="CR14" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="CS14" s="52"/>
+      <c r="CS14" s="49"/>
       <c r="CT14" s="31"/>
       <c r="CU14" s="31"/>
       <c r="CV14" s="31"/>
@@ -3429,6 +3492,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="BL13:BV13"/>
+    <mergeCell ref="BW13:CI13"/>
+    <mergeCell ref="CJ13:CK13"/>
+    <mergeCell ref="CL13:CL14"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="CL8:CQ8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="CS13:CS14"/>
+    <mergeCell ref="CM13:CR13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:AY13"/>
+    <mergeCell ref="AZ13:BF13"/>
+    <mergeCell ref="BG13:BK13"/>
     <mergeCell ref="DG3:DG4"/>
     <mergeCell ref="DA3:DF3"/>
     <mergeCell ref="S3:V3"/>
@@ -3445,25 +3527,6 @@
     <mergeCell ref="BV3:CG3"/>
     <mergeCell ref="BP8:BR8"/>
     <mergeCell ref="BJ3:BU3"/>
-    <mergeCell ref="CS13:CS14"/>
-    <mergeCell ref="CM13:CR13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:AY13"/>
-    <mergeCell ref="AZ13:BF13"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="CL8:CQ8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="BL13:BV13"/>
-    <mergeCell ref="BW13:CI13"/>
-    <mergeCell ref="CJ13:CK13"/>
-    <mergeCell ref="CL13:CL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3530,58 +3593,58 @@
       <c r="AO2" s="66"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="48" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="48" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="48" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="50"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="55"/>
       <c r="AH4" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AI4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="51" t="s">
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3682,7 +3745,7 @@
       <c r="AG5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AH5" s="52"/>
+      <c r="AH5" s="49"/>
       <c r="AI5" s="26" t="s">
         <v>113</v>
       </c>
@@ -3701,7 +3764,7 @@
       <c r="AN5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AO5" s="52"/>
+      <c r="AO5" s="49"/>
     </row>
     <row r="6" spans="2:41" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -3959,18 +4022,18 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
       <c r="S9" s="3"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
@@ -4095,94 +4158,94 @@
       <c r="AD3" s="31"/>
     </row>
     <row r="4" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="48" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="62" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="48" t="s">
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="48" t="s">
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="BN4" s="49"/>
-      <c r="BO4" s="50"/>
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="55"/>
       <c r="BP4" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="BQ4" s="59" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="51" t="s">
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="52"/>
+      <c r="BW4" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4385,7 +4448,7 @@
       <c r="BO5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BP5" s="52"/>
+      <c r="BP5" s="49"/>
       <c r="BQ5" s="26" t="s">
         <v>113</v>
       </c>
@@ -4404,7 +4467,7 @@
       <c r="BV5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="BW5" s="52"/>
+      <c r="BW5" s="49"/>
     </row>
     <row r="6" spans="2:75" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -4864,24 +4927,24 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="53" t="s">
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="22" t="s">
         <v>182</v>
       </c>
@@ -4948,11 +5011,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:AQ2"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AZ4"/>
-    <mergeCell ref="BQ4:BV4"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="O9:R9"/>
@@ -4960,6 +5018,11 @@
     <mergeCell ref="BA4:BL4"/>
     <mergeCell ref="BM4:BO4"/>
     <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="B2:AQ2"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AZ4"/>
+    <mergeCell ref="BQ4:BV4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4970,7 +5033,7 @@
   <dimension ref="B1:BK9"/>
   <sheetViews>
     <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4:BD5"/>
+      <selection activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,78 +5109,78 @@
       <c r="AG3" s="31"/>
     </row>
     <row r="4" spans="2:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="48" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="62" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="64"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="61"/>
       <c r="BD4" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="BE4" s="59" t="s">
+      <c r="BE4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="51" t="s">
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5284,7 +5347,7 @@
       <c r="BC5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BD5" s="52"/>
+      <c r="BD5" s="49"/>
       <c r="BE5" s="26" t="s">
         <v>113</v>
       </c>
@@ -5303,7 +5366,7 @@
       <c r="BJ5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="BK5" s="52"/>
+      <c r="BK5" s="49"/>
     </row>
     <row r="6" spans="2:63" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -5676,24 +5739,24 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="53" t="s">
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="22" t="s">
         <v>182</v>
       </c>
@@ -5746,16 +5809,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="B2:AT2"/>
     <mergeCell ref="B4:R4"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="W4:BC4"/>
     <mergeCell ref="BE4:BJ4"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="BD4:BD5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5815,71 +5878,71 @@
       <c r="O3" s="31"/>
     </row>
     <row r="4" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="62" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="48" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="50"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="55"/>
       <c r="BG4" s="67" t="s">
         <v>220</v>
       </c>
@@ -6056,7 +6119,7 @@
       <c r="BF5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="BG5" s="52"/>
+      <c r="BG5" s="49"/>
     </row>
     <row r="6" spans="2:59" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -6449,49 +6512,54 @@
       <c r="AI9" s="23"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="24"/>
-      <c r="AL9" s="53" t="s">
+      <c r="AL9" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="56" t="s">
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="58"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="65"/>
       <c r="AW9" s="2" t="s">
         <v>185</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AY9" s="53" t="s">
+      <c r="AY9" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="53" t="s">
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="55"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="58"/>
       <c r="BD9" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="BE9" s="53" t="s">
+      <c r="BE9" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="BF9" s="55"/>
+      <c r="BF9" s="58"/>
       <c r="BG9" s="2" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BC9"/>
+    <mergeCell ref="BE9:BF9"/>
     <mergeCell ref="AW4:BF4"/>
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="B2:AB2"/>
@@ -6499,11 +6567,6 @@
     <mergeCell ref="H4:AK4"/>
     <mergeCell ref="AL4:AQ4"/>
     <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AL9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="BE9:BF9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6590,74 +6653,74 @@
       <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="62" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="48" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="48" t="s">
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="50"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="55"/>
       <c r="BJ4" s="67" t="s">
         <v>220</v>
       </c>
@@ -6843,7 +6906,7 @@
       <c r="BI5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="52"/>
+      <c r="BJ5" s="49"/>
     </row>
     <row r="6" spans="2:62" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -7245,54 +7308,49 @@
       <c r="AL9" s="23"/>
       <c r="AM9" s="23"/>
       <c r="AN9" s="24"/>
-      <c r="AO9" s="53" t="s">
+      <c r="AO9" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="56" t="s">
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="58"/>
+      <c r="AU9" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="58"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="65"/>
       <c r="AZ9" s="2" t="s">
         <v>185</v>
       </c>
       <c r="BA9" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BB9" s="53" t="s">
+      <c r="BB9" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="53" t="s">
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="55"/>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="58"/>
       <c r="BG9" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="BH9" s="53" t="s">
+      <c r="BH9" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="BI9" s="55"/>
+      <c r="BI9" s="58"/>
       <c r="BJ9" s="2" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:AT2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:AN4"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AY4"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="AO9:AT9"/>
     <mergeCell ref="AU9:AY9"/>
@@ -7300,6 +7358,11 @@
     <mergeCell ref="BD9:BF9"/>
     <mergeCell ref="BH9:BI9"/>
     <mergeCell ref="AZ4:BI4"/>
+    <mergeCell ref="B2:AT2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7309,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,68 +7398,68 @@
       <c r="K2" s="66"/>
     </row>
     <row r="4" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="62" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="64"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61"/>
       <c r="AL4" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AM4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="50"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="55"/>
     </row>
     <row r="5" spans="2:53" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -7507,7 +7570,7 @@
       <c r="AK5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AL5" s="52"/>
+      <c r="AL5" s="49"/>
       <c r="AM5" s="5" t="s">
         <v>100</v>
       </c>
@@ -7904,28 +7967,28 @@
       <c r="AL9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AM9" s="53" t="s">
+      <c r="AM9" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="53" t="s">
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="55"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="58"/>
       <c r="AW9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AX9" s="53" t="s">
+      <c r="AX9" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="55"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="58"/>
       <c r="BA9" s="4"/>
     </row>
   </sheetData>
